--- a/AGILITY/SPWR_Agility Data Requirement_AM_TraxResponse.xlsx
+++ b/AGILITY/SPWR_Agility Data Requirement_AM_TraxResponse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1440" windowWidth="26000" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$89</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="183">
   <si>
     <t>Category</t>
   </si>
@@ -519,9 +519,6 @@
     <t>Nature of goods (Haz flag)</t>
   </si>
   <si>
-    <t>L314</t>
-  </si>
-  <si>
     <t>N9*VX</t>
   </si>
   <si>
@@ -531,19 +528,10 @@
     <t>confirmed</t>
   </si>
   <si>
-    <t>replace this to be mapping in B313</t>
-  </si>
-  <si>
     <t>Moved out of scope</t>
   </si>
   <si>
     <t>Awaiting confirmation from Claire</t>
-  </si>
-  <si>
-    <t>I see it already mapped in N1*BT</t>
-  </si>
-  <si>
-    <t>I see it already mapped in N9*OQ</t>
   </si>
   <si>
     <t>Can be derived based on contract</t>
@@ -553,6 +541,36 @@
   </si>
   <si>
     <t>Valid values include: FTL, LTL, TL, FCL, LCL, AC</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>N9*SI</t>
+  </si>
+  <si>
+    <t>Unique Infodis reference</t>
+  </si>
+  <si>
+    <t>Commercial Invoice Number</t>
+  </si>
+  <si>
+    <t>N9*OQ</t>
+  </si>
+  <si>
+    <t>Added for SunPower</t>
+  </si>
+  <si>
+    <t>N102 where N101 = BT</t>
+  </si>
+  <si>
+    <t>N104 where N101 = BT</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>L315</t>
   </si>
 </sst>
 </file>
@@ -649,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -672,8 +690,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,8 +804,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,8 +859,17 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -825,6 +907,15 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -862,6 +953,15 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1196,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1008"/>
+  <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1209,6 +1309,7 @@
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17" thickBot="1">
@@ -1270,7 +1371,7 @@
         <v>157</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1306,7 +1407,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1378,7 +1479,7 @@
         <v>133</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1417,7 +1518,7 @@
         <v>116</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1452,7 +1553,7 @@
         <v>156</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1486,7 +1587,7 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1738,7 +1839,7 @@
         <v>153</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2120,15 +2221,12 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2149,22 +2247,15 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="17" thickBot="1">
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2186,7 +2277,7 @@
     </row>
     <row r="28" spans="1:25" ht="17" thickBot="1">
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>15</v>
@@ -2195,8 +2286,8 @@
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>109</v>
+      <c r="F28" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>159</v>
@@ -2222,17 +2313,17 @@
     </row>
     <row r="29" spans="1:25" ht="17" thickBot="1">
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>159</v>
@@ -2258,7 +2349,7 @@
     </row>
     <row r="30" spans="1:25" ht="17" thickBot="1">
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>15</v>
@@ -2294,7 +2385,7 @@
     </row>
     <row r="31" spans="1:25" ht="17" thickBot="1">
       <c r="B31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>15</v>
@@ -2330,17 +2421,17 @@
     </row>
     <row r="32" spans="1:25" ht="17" thickBot="1">
       <c r="B32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>159</v>
@@ -2366,7 +2457,7 @@
     </row>
     <row r="33" spans="2:25" ht="17" thickBot="1">
       <c r="B33" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>15</v>
@@ -2376,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>159</v>
@@ -2401,18 +2492,18 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="2:25" ht="17" thickBot="1">
-      <c r="B34" s="6" t="s">
-        <v>43</v>
+      <c r="B34" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>159</v>
@@ -2438,7 +2529,7 @@
     </row>
     <row r="35" spans="2:25" ht="17" thickBot="1">
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -2448,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>159</v>
@@ -2474,7 +2565,7 @@
     </row>
     <row r="36" spans="2:25" ht="17" thickBot="1">
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>8</v>
@@ -2484,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>159</v>
@@ -2510,7 +2601,7 @@
     </row>
     <row r="37" spans="2:25" ht="17" thickBot="1">
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
@@ -2520,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>159</v>
@@ -2546,7 +2637,7 @@
     </row>
     <row r="38" spans="2:25" ht="17" thickBot="1">
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>8</v>
@@ -2556,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>159</v>
@@ -2582,7 +2673,7 @@
     </row>
     <row r="39" spans="2:25" ht="17" thickBot="1">
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
@@ -2592,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>159</v>
@@ -2618,7 +2709,7 @@
     </row>
     <row r="40" spans="2:25" ht="17" thickBot="1">
       <c r="B40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>8</v>
@@ -2628,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>159</v>
@@ -2654,7 +2745,7 @@
     </row>
     <row r="41" spans="2:25" ht="17" thickBot="1">
       <c r="B41" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
@@ -2664,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>159</v>
@@ -2689,18 +2780,18 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="2:25" ht="17" thickBot="1">
-      <c r="B42" s="9" t="s">
-        <v>51</v>
+      <c r="B42" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>159</v>
@@ -2725,21 +2816,21 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="2:25" ht="17" thickBot="1">
-      <c r="B43" s="6" t="s">
-        <v>164</v>
+      <c r="B43" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>175</v>
+        <v>114</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2760,9 +2851,9 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="2:25" ht="33" thickBot="1">
+    <row r="44" spans="2:25" ht="17" thickBot="1">
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>8</v>
@@ -2772,10 +2863,10 @@
         <v>9</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2798,7 +2889,7 @@
     </row>
     <row r="45" spans="2:25" ht="17" thickBot="1">
       <c r="B45" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>8</v>
@@ -2808,10 +2899,10 @@
         <v>9</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>168</v>
+        <v>116</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2833,21 +2924,21 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="2:25" ht="17" thickBot="1">
-      <c r="B46" s="9" t="s">
-        <v>54</v>
+      <c r="B46" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2869,21 +2960,21 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="2:25" ht="17" thickBot="1">
-      <c r="B47" s="6" t="s">
-        <v>55</v>
+      <c r="B47" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -2905,21 +2996,21 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="2:25" ht="17" thickBot="1">
-      <c r="B48" s="9" t="s">
-        <v>56</v>
+      <c r="B48" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2942,7 +3033,7 @@
     </row>
     <row r="49" spans="2:25" ht="17" thickBot="1">
       <c r="B49" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>15</v>
@@ -2955,7 +3046,7 @@
         <v>146</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2978,7 +3069,7 @@
     </row>
     <row r="50" spans="2:25" ht="17" thickBot="1">
       <c r="B50" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>15</v>
@@ -2988,10 +3079,10 @@
         <v>9</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3014,7 +3105,7 @@
     </row>
     <row r="51" spans="2:25" ht="17" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>15</v>
@@ -3024,7 +3115,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>159</v>
@@ -3050,7 +3141,7 @@
     </row>
     <row r="52" spans="2:25" ht="17" thickBot="1">
       <c r="B52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>15</v>
@@ -3060,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>159</v>
@@ -3086,7 +3177,7 @@
     </row>
     <row r="53" spans="2:25" ht="17" thickBot="1">
       <c r="B53" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>15</v>
@@ -3096,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>159</v>
@@ -3122,7 +3213,7 @@
     </row>
     <row r="54" spans="2:25" ht="17" thickBot="1">
       <c r="B54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>15</v>
@@ -3131,8 +3222,8 @@
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>122</v>
+      <c r="F54" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>159</v>
@@ -3158,7 +3249,7 @@
     </row>
     <row r="55" spans="2:25" ht="17" thickBot="1">
       <c r="B55" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>15</v>
@@ -3168,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>159</v>
@@ -3193,18 +3284,18 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" spans="2:25" ht="17" thickBot="1">
-      <c r="B56" s="10" t="s">
-        <v>64</v>
+      <c r="B56" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>159</v>
@@ -3230,7 +3321,7 @@
     </row>
     <row r="57" spans="2:25" ht="17" thickBot="1">
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>8</v>
@@ -3240,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>159</v>
@@ -3266,7 +3357,7 @@
     </row>
     <row r="58" spans="2:25" ht="17" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>8</v>
@@ -3276,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>159</v>
@@ -3302,7 +3393,7 @@
     </row>
     <row r="59" spans="2:25" ht="17" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>8</v>
@@ -3312,10 +3403,10 @@
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3338,7 +3429,7 @@
     </row>
     <row r="60" spans="2:25" ht="17" thickBot="1">
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>8</v>
@@ -3348,7 +3439,7 @@
         <v>9</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>168</v>
@@ -3373,21 +3464,21 @@
       <c r="Y60" s="4"/>
     </row>
     <row r="61" spans="2:25" ht="17" thickBot="1">
-      <c r="B61" s="9" t="s">
-        <v>69</v>
+      <c r="B61" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>162</v>
+      <c r="F61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3410,7 +3501,7 @@
     </row>
     <row r="62" spans="2:25" ht="17" thickBot="1">
       <c r="B62" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>15</v>
@@ -3423,7 +3514,7 @@
         <v>124</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3445,21 +3536,21 @@
       <c r="Y62" s="4"/>
     </row>
     <row r="63" spans="2:25" ht="17" thickBot="1">
-      <c r="B63" s="6" t="s">
-        <v>71</v>
+      <c r="B63" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3481,18 +3572,18 @@
       <c r="Y63" s="4"/>
     </row>
     <row r="64" spans="2:25" ht="17" thickBot="1">
-      <c r="B64" s="9" t="s">
-        <v>72</v>
+      <c r="B64" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>159</v>
@@ -3518,7 +3609,7 @@
     </row>
     <row r="65" spans="1:25" ht="17" thickBot="1">
       <c r="B65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>15</v>
@@ -3528,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>159</v>
@@ -3554,7 +3645,7 @@
     </row>
     <row r="66" spans="1:25" ht="17" thickBot="1">
       <c r="B66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>15</v>
@@ -3590,7 +3681,7 @@
     </row>
     <row r="67" spans="1:25" ht="17" thickBot="1">
       <c r="B67" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>15</v>
@@ -3625,21 +3716,21 @@
       <c r="Y67" s="4"/>
     </row>
     <row r="68" spans="1:25" ht="17" thickBot="1">
-      <c r="B68" s="6" t="s">
-        <v>76</v>
+      <c r="B68" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -3660,9 +3751,9 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" spans="1:25" ht="33" thickBot="1">
-      <c r="B69" s="10" t="s">
-        <v>77</v>
+    <row r="69" spans="1:25" ht="17" thickBot="1">
+      <c r="B69" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>8</v>
@@ -3672,10 +3763,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -3697,15 +3788,18 @@
       <c r="Y69" s="4"/>
     </row>
     <row r="70" spans="1:25" ht="17" thickBot="1">
-      <c r="A70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="B70" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -3726,21 +3820,17 @@
       <c r="Y70" s="4"/>
     </row>
     <row r="71" spans="1:25" ht="17" thickBot="1">
-      <c r="B71" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>159</v>
+      <c r="B71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -3761,22 +3851,22 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
     </row>
-    <row r="72" spans="1:25" ht="17" thickBot="1">
-      <c r="B72" s="9" t="s">
-        <v>80</v>
+    <row r="72" spans="1:25" ht="33" thickBot="1">
+      <c r="B72" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -3798,22 +3888,15 @@
       <c r="Y72" s="4"/>
     </row>
     <row r="73" spans="1:25" ht="17" thickBot="1">
-      <c r="B73" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -3835,7 +3918,7 @@
     </row>
     <row r="74" spans="1:25" ht="17" thickBot="1">
       <c r="B74" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>15</v>
@@ -3845,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>159</v>
@@ -3871,7 +3954,7 @@
     </row>
     <row r="75" spans="1:25" ht="17" thickBot="1">
       <c r="B75" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>15</v>
@@ -3881,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>159</v>
@@ -3907,7 +3990,7 @@
     </row>
     <row r="76" spans="1:25" ht="17" thickBot="1">
       <c r="B76" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>15</v>
@@ -3917,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>159</v>
@@ -3943,7 +4026,7 @@
     </row>
     <row r="77" spans="1:25" ht="17" thickBot="1">
       <c r="B77" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>15</v>
@@ -3953,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>159</v>
@@ -3977,9 +4060,9 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:25" ht="33" thickBot="1">
+    <row r="78" spans="1:25" ht="17" thickBot="1">
       <c r="B78" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>15</v>
@@ -3989,10 +4072,10 @@
         <v>9</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>171</v>
+        <v>141</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -4013,9 +4096,9 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" ht="33" thickBot="1">
+    <row r="79" spans="1:25" ht="17" thickBot="1">
       <c r="B79" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>15</v>
@@ -4025,10 +4108,10 @@
         <v>9</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>171</v>
+        <v>141</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -4050,15 +4133,22 @@
       <c r="Y79" s="4"/>
     </row>
     <row r="80" spans="1:25" ht="17" thickBot="1">
-      <c r="A80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="4"/>
+      <c r="B80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -4078,22 +4168,22 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="2:25" ht="33" thickBot="1">
-      <c r="B81" s="6" t="s">
-        <v>89</v>
+    <row r="81" spans="1:25" ht="33" thickBot="1">
+      <c r="B81" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4114,9 +4204,9 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="2:25" ht="17" thickBot="1">
+    <row r="82" spans="1:25" ht="33" thickBot="1">
       <c r="B82" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>15</v>
@@ -4126,10 +4216,10 @@
         <v>9</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>170</v>
+        <v>142</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4150,23 +4240,16 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="2:25" ht="17" thickBot="1">
-      <c r="B83" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>159</v>
-      </c>
+    <row r="83" spans="1:25" ht="17" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -4186,12 +4269,12 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="2:25" ht="17" thickBot="1">
-      <c r="B84" s="9" t="s">
-        <v>92</v>
+    <row r="84" spans="1:25" ht="33" thickBot="1">
+      <c r="B84" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -4200,7 +4283,7 @@
       <c r="F84" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="13" t="s">
         <v>170</v>
       </c>
       <c r="H84" s="4"/>
@@ -4222,9 +4305,9 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
     </row>
-    <row r="85" spans="2:25" ht="17" thickBot="1">
+    <row r="85" spans="1:25" ht="17" thickBot="1">
       <c r="B85" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>15</v>
@@ -4234,10 +4317,10 @@
         <v>9</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -4258,9 +4341,9 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
     </row>
-    <row r="86" spans="2:25" ht="17" thickBot="1">
-      <c r="B86" s="4" t="s">
-        <v>160</v>
+    <row r="86" spans="1:25" ht="17" thickBot="1">
+      <c r="B86" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>15</v>
@@ -4269,8 +4352,8 @@
       <c r="E86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>136</v>
+      <c r="F86" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>159</v>
@@ -4294,13 +4377,23 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
     </row>
-    <row r="87" spans="2:25" ht="17" thickBot="1">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+    <row r="87" spans="1:25" ht="17" thickBot="1">
+      <c r="B87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -4320,13 +4413,23 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
     </row>
-    <row r="88" spans="2:25" ht="17" thickBot="1">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+    <row r="88" spans="1:25" ht="17" thickBot="1">
+      <c r="B88" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -4346,13 +4449,23 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
     </row>
-    <row r="89" spans="2:25" ht="17" thickBot="1">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+    <row r="89" spans="1:25" ht="17" thickBot="1">
+      <c r="B89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -4372,7 +4485,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
     </row>
-    <row r="90" spans="2:25" ht="17" thickBot="1">
+    <row r="90" spans="1:25" ht="17" thickBot="1">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -4398,7 +4511,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
     </row>
-    <row r="91" spans="2:25" ht="17" thickBot="1">
+    <row r="91" spans="1:25" ht="17" thickBot="1">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -4424,7 +4537,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" spans="2:25" ht="17" thickBot="1">
+    <row r="92" spans="1:25" ht="17" thickBot="1">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4450,7 +4563,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="2:25" ht="17" thickBot="1">
+    <row r="93" spans="1:25" ht="17" thickBot="1">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -4476,7 +4589,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="2:25" ht="17" thickBot="1">
+    <row r="94" spans="1:25" ht="17" thickBot="1">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -4502,7 +4615,7 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
     </row>
-    <row r="95" spans="2:25" ht="17" thickBot="1">
+    <row r="95" spans="1:25" ht="17" thickBot="1">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -4528,7 +4641,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="2:25" ht="17" thickBot="1">
+    <row r="96" spans="1:25" ht="17" thickBot="1">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -28266,7 +28379,89 @@
       <c r="X1008" s="4"/>
       <c r="Y1008" s="4"/>
     </row>
+    <row r="1009" spans="2:25" ht="17" thickBot="1">
+      <c r="B1009" s="4"/>
+      <c r="C1009" s="4"/>
+      <c r="D1009" s="4"/>
+      <c r="E1009" s="4"/>
+      <c r="F1009" s="4"/>
+      <c r="G1009" s="4"/>
+      <c r="H1009" s="4"/>
+      <c r="I1009" s="4"/>
+      <c r="J1009" s="4"/>
+      <c r="K1009" s="4"/>
+      <c r="L1009" s="4"/>
+      <c r="M1009" s="4"/>
+      <c r="N1009" s="4"/>
+      <c r="O1009" s="4"/>
+      <c r="P1009" s="4"/>
+      <c r="Q1009" s="4"/>
+      <c r="R1009" s="4"/>
+      <c r="S1009" s="4"/>
+      <c r="T1009" s="4"/>
+      <c r="U1009" s="4"/>
+      <c r="V1009" s="4"/>
+      <c r="W1009" s="4"/>
+      <c r="X1009" s="4"/>
+      <c r="Y1009" s="4"/>
+    </row>
+    <row r="1010" spans="2:25" ht="17" thickBot="1">
+      <c r="B1010" s="4"/>
+      <c r="C1010" s="4"/>
+      <c r="D1010" s="4"/>
+      <c r="E1010" s="4"/>
+      <c r="F1010" s="4"/>
+      <c r="G1010" s="4"/>
+      <c r="H1010" s="4"/>
+      <c r="I1010" s="4"/>
+      <c r="J1010" s="4"/>
+      <c r="K1010" s="4"/>
+      <c r="L1010" s="4"/>
+      <c r="M1010" s="4"/>
+      <c r="N1010" s="4"/>
+      <c r="O1010" s="4"/>
+      <c r="P1010" s="4"/>
+      <c r="Q1010" s="4"/>
+      <c r="R1010" s="4"/>
+      <c r="S1010" s="4"/>
+      <c r="T1010" s="4"/>
+      <c r="U1010" s="4"/>
+      <c r="V1010" s="4"/>
+      <c r="W1010" s="4"/>
+      <c r="X1010" s="4"/>
+      <c r="Y1010" s="4"/>
+    </row>
+    <row r="1011" spans="2:25" ht="17" thickBot="1">
+      <c r="B1011" s="4"/>
+      <c r="C1011" s="4"/>
+      <c r="D1011" s="4"/>
+      <c r="E1011" s="4"/>
+      <c r="F1011" s="4"/>
+      <c r="G1011" s="4"/>
+      <c r="H1011" s="4"/>
+      <c r="I1011" s="4"/>
+      <c r="J1011" s="4"/>
+      <c r="K1011" s="4"/>
+      <c r="L1011" s="4"/>
+      <c r="M1011" s="4"/>
+      <c r="N1011" s="4"/>
+      <c r="O1011" s="4"/>
+      <c r="P1011" s="4"/>
+      <c r="Q1011" s="4"/>
+      <c r="R1011" s="4"/>
+      <c r="S1011" s="4"/>
+      <c r="T1011" s="4"/>
+      <c r="U1011" s="4"/>
+      <c r="V1011" s="4"/>
+      <c r="W1011" s="4"/>
+      <c r="X1011" s="4"/>
+      <c r="Y1011" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
